--- a/calendar.xlsx
+++ b/calendar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/paulpallesen/Documents/Calendar-feed/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54581393-AE2F-ED4D-90E0-A2D4FF940C0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCB6E786-4678-504A-BDD9-8507680D109E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3080" yWindow="2060" windowWidth="28040" windowHeight="17440" xr2:uid="{DD08DFD7-F757-6F4F-853E-B722FD167EA9}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="32">
   <si>
     <t>Unique ID</t>
   </si>
@@ -120,6 +120,18 @@
   </si>
   <si>
     <t>Transparent</t>
+  </si>
+  <si>
+    <t>TEST/EVENT</t>
+  </si>
+  <si>
+    <t>MYMY</t>
+  </si>
+  <si>
+    <t>Hello</t>
+  </si>
+  <si>
+    <t>Tutorial</t>
   </si>
 </sst>
 </file>
@@ -158,10 +170,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -496,10 +509,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{824B196F-4EAC-5C42-918D-6B09AB48F696}">
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -629,6 +642,36 @@
         <v>27</v>
       </c>
     </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="1">
+        <v>45884</v>
+      </c>
+      <c r="F4" s="3"/>
+      <c r="G4" s="1">
+        <v>45885</v>
+      </c>
+      <c r="I4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M4" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/calendar.xlsx
+++ b/calendar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/paulpallesen/Documents/Calendar-feed/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCB6E786-4678-504A-BDD9-8507680D109E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26F9C9EB-6996-7044-AD8C-9343B0B88AA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3080" yWindow="2060" windowWidth="28040" windowHeight="17440" xr2:uid="{DD08DFD7-F757-6F4F-853E-B722FD167EA9}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="36">
   <si>
     <t>Unique ID</t>
   </si>
@@ -132,6 +132,18 @@
   </si>
   <si>
     <t>Tutorial</t>
+  </si>
+  <si>
+    <t>FINAL TEST</t>
+  </si>
+  <si>
+    <t>TEST</t>
+  </si>
+  <si>
+    <t>Melbourne</t>
+  </si>
+  <si>
+    <t>Opaque</t>
   </si>
 </sst>
 </file>
@@ -509,10 +521,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{824B196F-4EAC-5C42-918D-6B09AB48F696}">
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -672,6 +684,36 @@
         <v>27</v>
       </c>
     </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="1">
+        <v>45884</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="1">
+        <v>45885</v>
+      </c>
+      <c r="I5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M5" t="s">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/calendar.xlsx
+++ b/calendar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/paulpallesen/Documents/Calendar-feed/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26F9C9EB-6996-7044-AD8C-9343B0B88AA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6131BF10-F5D6-0447-BB29-7571D4BB76B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3080" yWindow="2060" windowWidth="28040" windowHeight="17440" xr2:uid="{DD08DFD7-F757-6F4F-853E-B722FD167EA9}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
   <si>
     <t>Unique ID</t>
   </si>
@@ -77,73 +77,43 @@
     <t>TRANSPARENT</t>
   </si>
   <si>
-    <t>BBUS23</t>
-  </si>
-  <si>
-    <t>MBAA22</t>
-  </si>
-  <si>
-    <t>Welcome to course</t>
-  </si>
-  <si>
     <t>Orientation</t>
   </si>
   <si>
-    <t>Trimester Orientation</t>
-  </si>
-  <si>
     <t>Lecture</t>
   </si>
   <si>
-    <t>9:30am</t>
-  </si>
-  <si>
-    <t>8:00am</t>
-  </si>
-  <si>
-    <t>11:30am</t>
-  </si>
-  <si>
-    <t>2:00pm</t>
-  </si>
-  <si>
-    <t>Sydney, Australia</t>
-  </si>
-  <si>
-    <t>First lecture</t>
-  </si>
-  <si>
-    <t>Frist Orientation</t>
-  </si>
-  <si>
-    <t>https:www.torrens.edu.au</t>
-  </si>
-  <si>
     <t>Transparent</t>
   </si>
   <si>
-    <t>TEST/EVENT</t>
-  </si>
-  <si>
-    <t>MYMY</t>
-  </si>
-  <si>
-    <t>Hello</t>
-  </si>
-  <si>
     <t>Tutorial</t>
   </si>
   <si>
-    <t>FINAL TEST</t>
-  </si>
-  <si>
     <t>TEST</t>
   </si>
   <si>
-    <t>Melbourne</t>
-  </si>
-  <si>
-    <t>Opaque</t>
+    <t>T1 Orientation</t>
+  </si>
+  <si>
+    <t>T1 - Week 1</t>
+  </si>
+  <si>
+    <t>T1 - Week 2</t>
+  </si>
+  <si>
+    <t>T1 - Week 3</t>
+  </si>
+  <si>
+    <t>Census Date</t>
+  </si>
+  <si>
+    <t>Census Date International</t>
+  </si>
+  <si>
+    <t>T1 - International Census Date</t>
+  </si>
+  <si>
+    <t>T1 - Domestic Census Date</t>
   </si>
 </sst>
 </file>
@@ -153,10 +123,16 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -521,10 +497,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{824B196F-4EAC-5C42-918D-6B09AB48F696}">
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -571,150 +547,120 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" t="str">
-        <f>B2&amp;E2&amp;J2</f>
-        <v>BBUS2345884Sydney, Australia</v>
+      <c r="A2" t="s">
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="1">
+        <v>45908</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="1">
+        <v>45914</v>
+      </c>
+      <c r="M2" t="s">
         <v>15</v>
-      </c>
-      <c r="D2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="1">
-        <v>45884</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" s="1">
-        <v>45884</v>
-      </c>
-      <c r="H2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L2" t="s">
-        <v>26</v>
-      </c>
-      <c r="M2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" t="str">
-        <f>B3&amp;E3&amp;J3</f>
-        <v>MBAA2245885Sydney, Australia</v>
+      <c r="A3" t="s">
+        <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E3" s="1">
-        <v>45885</v>
-      </c>
-      <c r="F3" t="s">
-        <v>19</v>
+        <v>45915</v>
       </c>
       <c r="G3" s="1">
-        <v>45885</v>
-      </c>
-      <c r="H3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" t="s">
-        <v>23</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="L3" t="s">
-        <v>26</v>
-      </c>
+        <v>45921</v>
+      </c>
+      <c r="I3" s="1"/>
+      <c r="K3" s="1"/>
       <c r="M3" s="1" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="E4" s="1">
-        <v>45884</v>
+        <v>45922</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="1">
-        <v>45885</v>
-      </c>
-      <c r="I4" t="s">
-        <v>23</v>
-      </c>
-      <c r="J4" t="s">
-        <v>23</v>
+        <v>45928</v>
       </c>
       <c r="M4" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="D5" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="E5" s="1">
-        <v>45884</v>
+        <v>45929</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="1">
-        <v>45885</v>
-      </c>
-      <c r="I5" t="s">
-        <v>34</v>
-      </c>
-      <c r="J5" t="s">
-        <v>34</v>
+        <v>45935</v>
       </c>
       <c r="M5" t="s">
-        <v>35</v>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="1">
+        <v>45928</v>
+      </c>
+      <c r="M6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="1">
+        <v>45935</v>
+      </c>
+      <c r="M7" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/calendar.xlsx
+++ b/calendar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/paulpallesen/Documents/Calendar-feed/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6131BF10-F5D6-0447-BB29-7571D4BB76B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3794FD3-249F-C548-A7BC-7346CFB4E488}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3080" yWindow="2060" windowWidth="28040" windowHeight="17440" xr2:uid="{DD08DFD7-F757-6F4F-853E-B722FD167EA9}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Unique ID</t>
   </si>
@@ -83,9 +83,6 @@
     <t>Lecture</t>
   </si>
   <si>
-    <t>Transparent</t>
-  </si>
-  <si>
     <t>Tutorial</t>
   </si>
   <si>
@@ -102,12 +99,6 @@
   </si>
   <si>
     <t>T1 - Week 3</t>
-  </si>
-  <si>
-    <t>Census Date</t>
-  </si>
-  <si>
-    <t>Census Date International</t>
   </si>
   <si>
     <t>T1 - International Census Date</t>
@@ -121,7 +112,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ am/pm"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -158,11 +149,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -497,13 +487,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{824B196F-4EAC-5C42-918D-6B09AB48F696}">
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -547,11 +544,8 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" t="s">
-        <v>18</v>
+      <c r="C2" t="s">
+        <v>17</v>
       </c>
       <c r="D2" t="s">
         <v>14</v>
@@ -563,16 +557,14 @@
       <c r="G2" s="1">
         <v>45914</v>
       </c>
-      <c r="M2" t="s">
-        <v>15</v>
+      <c r="H2" s="2"/>
+      <c r="M2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" t="s">
-        <v>19</v>
+      <c r="C3" t="s">
+        <v>18</v>
       </c>
       <c r="D3" t="s">
         <v>13</v>
@@ -580,84 +572,188 @@
       <c r="E3" s="1">
         <v>45915</v>
       </c>
+      <c r="F3" s="2"/>
       <c r="G3" s="1">
         <v>45921</v>
       </c>
-      <c r="I3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="M3" s="1" t="s">
+      <c r="H3" s="2"/>
+      <c r="M3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" t="s">
-        <v>16</v>
       </c>
       <c r="E4" s="1">
         <v>45922</v>
       </c>
-      <c r="F4" s="3"/>
+      <c r="F4" s="2"/>
       <c r="G4" s="1">
         <v>45928</v>
       </c>
-      <c r="M4" t="s">
-        <v>15</v>
+      <c r="H4" s="2"/>
+      <c r="M4" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" t="s">
-        <v>21</v>
+      <c r="C5" t="s">
+        <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E5" s="1">
         <v>45929</v>
       </c>
-      <c r="F5" s="3"/>
+      <c r="F5" s="2"/>
       <c r="G5" s="1">
         <v>45935</v>
       </c>
-      <c r="M5" t="s">
-        <v>15</v>
+      <c r="H5" s="2"/>
+      <c r="M5" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>22</v>
       </c>
       <c r="E6" s="1">
         <v>45928</v>
       </c>
-      <c r="M6" t="s">
-        <v>15</v>
+      <c r="F6" s="2"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="2"/>
+      <c r="M6" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" t="s">
-        <v>23</v>
+      <c r="C7" t="s">
+        <v>21</v>
       </c>
       <c r="E7" s="1">
         <v>45935</v>
       </c>
-      <c r="M7" t="s">
-        <v>15</v>
-      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="2"/>
+      <c r="M7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="E8" s="1"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="2"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="E9" s="1"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="E10" s="1"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="2"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="E11" s="1"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="E12" s="1"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="E13" s="1"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="E14" s="1"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="2"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="E15" s="1"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="2"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="E16" s="1"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="2"/>
+    </row>
+    <row r="17" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E17" s="1"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="2"/>
+    </row>
+    <row r="18" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E18" s="1"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="2"/>
+    </row>
+    <row r="19" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E19" s="1"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="2"/>
+    </row>
+    <row r="20" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E20" s="1"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="2"/>
+    </row>
+    <row r="21" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E21" s="1"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="2"/>
+    </row>
+    <row r="22" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E22" s="1"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="2"/>
+    </row>
+    <row r="23" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E23" s="1"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="2"/>
+    </row>
+    <row r="24" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E24" s="1"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="2"/>
+    </row>
+    <row r="25" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E25" s="1"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
